--- a/syllabus/AREC 615 Class Schedule.xlsx
+++ b/syllabus/AREC 615 Class Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judebayham/Documents/git_projects/arec-615/syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCBACF-1975-1147-9178-B113F0445999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F2700F-D29A-994F-AF6A-B8291FA0AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57060" yWindow="5540" windowWidth="25860" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27280" yWindow="860" windowWidth="25860" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FA2025" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'FA2025'!$E$5</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'FA2025'!$E$6</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'FA2025'!$E$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'FA2025'!$E$8</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>LP Solution - Simplex Method</t>
   </si>
@@ -214,7 +214,13 @@
     <t>Final Exam (Wednesday 6:20 - 8:20 PM)</t>
   </si>
   <si>
-    <t>Project Paper</t>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>How to present</t>
+  </si>
+  <si>
+    <t>Select Project Paper</t>
   </si>
 </sst>
 </file>
@@ -638,7 +644,7 @@
   <dimension ref="A1:E982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -761,9 +767,6 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -780,7 +783,9 @@
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -825,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1009,7 +1014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1018,8 +1023,11 @@
         <f>B22+7</f>
         <v>45972</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1028,13 +1036,15 @@
         <f t="shared" ref="B25" si="12">B24+2</f>
         <v>45974</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1043,10 +1053,12 @@
         <f>B24+7</f>
         <v>45979</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1055,7 +1067,9 @@
         <f t="shared" ref="B27" si="13">B26+2</f>
         <v>45981</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>

--- a/syllabus/AREC 615 Class Schedule.xlsx
+++ b/syllabus/AREC 615 Class Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judebayham/Documents/git_projects/arec-615/syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F2700F-D29A-994F-AF6A-B8291FA0AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24B67BC-D88F-F349-A10D-0474BEF3321C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27280" yWindow="860" windowWidth="25860" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FA2025" sheetId="6" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>LP Solution - Simplex Method</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Unconstrained nonlinear optimization</t>
-  </si>
-  <si>
-    <t>Unconstrained nonlinear optimization: numerical methods</t>
   </si>
   <si>
     <t>Constrained nonlinear optimization</t>
@@ -644,7 +641,7 @@
   <dimension ref="A1:E982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -658,19 +655,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -681,10 +678,10 @@
         <v>45895</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -700,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -717,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -745,10 +742,10 @@
         <v>45909</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -762,10 +759,10 @@
         <v>45911</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -781,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -797,7 +794,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -812,7 +809,7 @@
         <v>45923</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="3"/>
@@ -827,10 +824,10 @@
         <v>45925</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -843,7 +840,7 @@
         <v>45930</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -862,7 +859,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -871,9 +868,6 @@
         <f>B12+7</f>
         <v>45937</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="3"/>
     </row>
@@ -887,10 +881,10 @@
         <v>45939</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -903,7 +897,7 @@
         <v>45944</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -917,7 +911,7 @@
         <v>45946</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -932,10 +926,10 @@
         <v>45951</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -948,7 +942,7 @@
         <v>45953</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -961,7 +955,7 @@
         <v>45958</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -975,13 +969,13 @@
         <v>45960</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -994,7 +988,7 @@
         <v>45965</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -1008,10 +1002,10 @@
         <v>45967</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1024,7 +1018,7 @@
         <v>45972</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1037,11 +1031,11 @@
         <v>45974</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1054,7 +1048,7 @@
         <v>45979</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -1068,7 +1062,7 @@
         <v>45981</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1083,7 +1077,7 @@
         <v>45986</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1096,7 +1090,7 @@
         <v>45988</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1109,7 +1103,7 @@
         <v>45993</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -1123,7 +1117,7 @@
         <v>45995</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
@@ -1138,7 +1132,7 @@
         <v>46000</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -1151,7 +1145,7 @@
         <v>46002</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -1159,7 +1153,7 @@
         <v>46008</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2162,22 +2156,22 @@
   <sheetData>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/syllabus/AREC 615 Class Schedule.xlsx
+++ b/syllabus/AREC 615 Class Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judebayham/Documents/git_projects/arec-615/syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24B67BC-D88F-F349-A10D-0474BEF3321C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CBFB57-13F0-5447-8DDD-1A9512B12182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>LP Solution - Simplex Method</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Select Project Paper</t>
+  </si>
+  <si>
+    <t>Replication and Extension Proposal</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
   <dimension ref="A1:E982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -826,9 +829,6 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -857,7 +857,9 @@
         <v>7</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -991,6 +993,9 @@
         <v>41</v>
       </c>
       <c r="D22" s="3"/>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
@@ -1132,7 +1137,7 @@
         <v>46000</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">

--- a/syllabus/AREC 615 Class Schedule.xlsx
+++ b/syllabus/AREC 615 Class Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judebayham/Documents/git_projects/arec-615/syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CBFB57-13F0-5447-8DDD-1A9512B12182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D77FC-21BC-864D-B1DC-25412DC40469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>LP Solution - Simplex Method</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Final Exam (Wednesday 6:20 - 8:20 PM)</t>
   </si>
   <si>
-    <t>Slack</t>
-  </si>
-  <si>
     <t>How to present</t>
   </si>
   <si>
@@ -221,6 +218,15 @@
   </si>
   <si>
     <t>Replication and Extension Proposal</t>
+  </si>
+  <si>
+    <t>Fenichel Abbott - Metaphor to measurement</t>
+  </si>
+  <si>
+    <t>Hotelling - Exhaustible Resources</t>
+  </si>
+  <si>
+    <t>Knapp Olson - Stochastic Water</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
   <dimension ref="A1:E982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -858,7 +864,7 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -994,7 +1000,7 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1023,7 +1029,7 @@
         <v>45972</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1036,7 +1042,7 @@
         <v>45974</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="8" t="s">
@@ -1053,7 +1059,7 @@
         <v>45979</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -1067,7 +1073,7 @@
         <v>45981</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>

--- a/syllabus/AREC 615 Class Schedule.xlsx
+++ b/syllabus/AREC 615 Class Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judebayham/Documents/git_projects/arec-615/syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9D77FC-21BC-864D-B1DC-25412DC40469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C7DE1-9FDF-BA42-B3DE-5B551D0C1E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,10 +223,10 @@
     <t>Fenichel Abbott - Metaphor to measurement</t>
   </si>
   <si>
-    <t>Hotelling - Exhaustible Resources</t>
-  </si>
-  <si>
-    <t>Knapp Olson - Stochastic Water</t>
+    <t>Burt - Optimal Resource Use</t>
+  </si>
+  <si>
+    <t>Project workshop</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <dimension ref="A1:E982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1045,9 +1045,6 @@
         <v>49</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="8" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
@@ -1059,9 +1056,12 @@
         <v>45979</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3"/>
+      <c r="E26" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
@@ -1073,7 +1073,7 @@
         <v>45981</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>

--- a/syllabus/AREC 615 Class Schedule.xlsx
+++ b/syllabus/AREC 615 Class Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judebayham/Documents/git_projects/arec-615/syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C7DE1-9FDF-BA42-B3DE-5B551D0C1E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8337A5-AB5F-8F43-B400-A8DB2DAAB436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>LP Solution - Simplex Method</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Applications: Risk-averse resource use, stochastic growth, climate adaptation</t>
   </si>
   <si>
-    <t>Presentation</t>
-  </si>
-  <si>
     <t>week</t>
   </si>
   <si>
@@ -227,6 +224,15 @@
   </si>
   <si>
     <t>Project workshop</t>
+  </si>
+  <si>
+    <t>Presentation: Shuhang, Catherine, Shreezal</t>
+  </si>
+  <si>
+    <t>Presentation: Alisha, Suchil, Matt</t>
+  </si>
+  <si>
+    <t>Presentation: Jayna, Trent, Mehran</t>
   </si>
 </sst>
 </file>
@@ -650,7 +656,7 @@
   <dimension ref="A1:E982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -664,19 +670,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -687,10 +693,10 @@
         <v>45895</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -706,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -723,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -751,10 +757,10 @@
         <v>45909</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -768,10 +774,10 @@
         <v>45911</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -787,10 +793,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -818,7 +824,7 @@
         <v>45923</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="3"/>
@@ -864,7 +870,7 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -892,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -919,7 +925,7 @@
         <v>45946</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -934,10 +940,10 @@
         <v>45951</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -950,7 +956,7 @@
         <v>45953</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -963,7 +969,7 @@
         <v>45958</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -977,13 +983,13 @@
         <v>45960</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -996,11 +1002,11 @@
         <v>45965</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1013,10 +1019,10 @@
         <v>45967</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1029,7 +1035,7 @@
         <v>45972</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1042,7 +1048,7 @@
         <v>45974</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -1056,11 +1062,11 @@
         <v>45979</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1073,7 +1079,7 @@
         <v>45981</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1088,7 +1094,7 @@
         <v>45986</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1101,7 +1107,7 @@
         <v>45988</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -1114,7 +1120,7 @@
         <v>45993</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -1128,7 +1134,7 @@
         <v>45995</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
@@ -1143,7 +1149,7 @@
         <v>46000</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -1164,7 +1170,7 @@
         <v>46008</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.15">
@@ -2167,7 +2173,7 @@
   <sheetData>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
